--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\FilterDataProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF875F8B-5AD1-493C-B8E1-31D696C6CBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BD8829-C8F8-4EA7-B047-7F99268FE3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3516" yWindow="516" windowWidth="17280" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="252" windowWidth="23256" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,52 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
-  <si>
-    <t>项目编码</t>
-  </si>
-  <si>
-    <t>站址编码</t>
-  </si>
-  <si>
-    <t>建设方式</t>
-  </si>
-  <si>
-    <t>场景</t>
-  </si>
-  <si>
-    <t>移动订单号</t>
-  </si>
-  <si>
-    <t>联通订单号</t>
-  </si>
-  <si>
-    <t>电信订单号</t>
-  </si>
-  <si>
-    <t>站址类型</t>
-  </si>
-  <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>项目类型</t>
-  </si>
-  <si>
-    <t>立项时间</t>
-  </si>
-  <si>
-    <t>开工时间</t>
-  </si>
-  <si>
-    <t>完工时间</t>
-  </si>
-  <si>
-    <t>内验时间</t>
-  </si>
-  <si>
-    <t>起租时间</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>序号</t>
   </si>
@@ -84,9 +39,6 @@
     <t>区县</t>
   </si>
   <si>
-    <t>项目基础信息（后续新增需求请补充）</t>
-  </si>
-  <si>
     <t>备注说明</t>
   </si>
   <si>
@@ -99,67 +51,10 @@
     <t>伊乌区域</t>
   </si>
   <si>
-    <t>24A01HLYC011000351</t>
-  </si>
-  <si>
-    <t>230702900010001581</t>
-  </si>
-  <si>
-    <t>新建</t>
-  </si>
-  <si>
-    <t>一般市区</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>1224061313775115</t>
-  </si>
-  <si>
-    <t>地面站</t>
-  </si>
-  <si>
-    <t>中国铁塔黑龙江分公司伊春市分公司2024年伊春傲城小区南新建铁塔类项目</t>
-  </si>
-  <si>
-    <t>宏站</t>
-  </si>
-  <si>
-    <t>24A01HLYC011000352</t>
-  </si>
-  <si>
-    <t>乡镇</t>
-  </si>
-  <si>
-    <t>1224060413746878</t>
-  </si>
-  <si>
-    <t>中国铁塔黑龙江分公司伊春市分公司2024年乌带公路补点新建3新建铁塔类项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2024-11-01</t>
-  </si>
-  <si>
-    <t>24A01HLYC011000357</t>
-  </si>
-  <si>
-    <t>1224060413746876</t>
-  </si>
-  <si>
-    <t>中国铁塔黑龙江分公司伊春市分公司2024年伊翠峦伊北高速补点1新建铁塔类项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24A01HLYC011000358</t>
-  </si>
-  <si>
-    <t>1224060413746874</t>
-  </si>
-  <si>
-    <t>中国铁塔黑龙江分公司伊春市分公司2024年伊翠峦伊北高速补点2新建铁塔类项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -292,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -317,9 +212,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -622,7 +514,7 @@
   <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -633,35 +525,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
       <c r="T1"/>
       <c r="U1"/>
       <c r="V1"/>
@@ -671,60 +561,30 @@
       <c r="Z1"/>
       <c r="AA1"/>
       <c r="AB1"/>
-      <c r="AC1" s="11" t="s">
-        <v>20</v>
+      <c r="AC1" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
@@ -734,66 +594,46 @@
       <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
-      <c r="AC2" s="11"/>
+      <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>53874</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="7">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
         <v>45526</v>
       </c>
-      <c r="P3" s="7">
+      <c r="G3" s="7">
         <v>45526</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
@@ -810,59 +650,39 @@
         <v>53875</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2.3070290001000099E+17</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="7">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7">
         <v>45549</v>
       </c>
-      <c r="P4" s="7">
+      <c r="G4" s="7">
         <v>45597</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="H4" s="7">
         <v>45721</v>
       </c>
-      <c r="R4" s="7">
+      <c r="I4" s="7">
         <v>45728</v>
       </c>
-      <c r="S4" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="J4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
@@ -879,59 +699,39 @@
         <v>53876</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2.3070290001000099E+17</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="7">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7">
         <v>45545</v>
       </c>
-      <c r="P5" s="7">
+      <c r="G5" s="7">
         <v>45605</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="H5" s="7">
         <v>45663</v>
       </c>
-      <c r="R5" s="7">
+      <c r="I5" s="7">
         <v>45709</v>
       </c>
-      <c r="S5" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="J5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
@@ -948,59 +748,39 @@
         <v>53877</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2.3070290001000099E+17</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="7">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7">
         <v>45545</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="7">
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7">
         <v>45663</v>
       </c>
-      <c r="R6" s="7">
+      <c r="I6" s="7">
         <v>45728</v>
       </c>
-      <c r="S6" s="7">
+      <c r="J6" s="7">
         <v>45749</v>
       </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
